--- a/biology/Zoologie/Chiromantis_doriae/Chiromantis_doriae.xlsx
+++ b/biology/Zoologie/Chiromantis_doriae/Chiromantis_doriae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiromantis doriae est une espèce d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiromantis doriae est une espèce d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, au Cambodge, au Laos, en Thaïlande, au Viêt Nam, en Inde dans l'Arunachal Pradesh, et en Chine dans le Yunnan et sur l'île de Hainan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, au Cambodge, au Laos, en Thaïlande, au Viêt Nam, en Inde dans l'Arunachal Pradesh, et en Chine dans le Yunnan et sur l'île de Hainan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giacomo Doria[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giacomo Doria.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1893 : Concluding report on the reptiles and batrachians obtained in Burma by Signor L. Fea, dealing with the collection made in Pegu and the Karin Hills in 1887–88. Annali del Museo Civico di Storia Naturale di Genova, sér. 2, vol. 13, p. 304–347 (texte intégral).</t>
         </is>
